--- a/_InternalCalc.xlsx
+++ b/_InternalCalc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Python\FirstGo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Python\OpenWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EFE3E8-F395-4A88-BD70-7E5E837FB157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F876715-33B7-4F17-B005-49C11BB08DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Rev Time</t>
   </si>
@@ -57,13 +57,7 @@
     <t>Metric</t>
   </si>
   <si>
-    <t>Inactive</t>
-  </si>
-  <si>
     <t>Rw</t>
-  </si>
-  <si>
-    <t>Active</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -72,19 +66,61 @@
     <t>Total</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Façade Level</t>
   </si>
   <si>
-    <t>Select Façade level from dropdown</t>
+    <t>Laeq 16h</t>
   </si>
   <si>
-    <t>Façade  Elements</t>
+    <t>Off</t>
   </si>
   <si>
-    <t>State</t>
+    <r>
+      <t xml:space="preserve"> Façade Noise Level dB(A) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Façade  Elements </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Selected</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ?</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -94,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +160,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -134,12 +186,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -199,11 +251,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -211,9 +289,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -230,46 +305,66 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -579,324 +674,330 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:Y27"/>
+  <dimension ref="B2:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="K14" sqref="K14:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="37" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
     <col min="5" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="9.140625" style="6"/>
-    <col min="11" max="25" width="9.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
+    <col min="13" max="24" width="9.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="2" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12">
+    <row r="2" spans="2:24" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11">
         <v>125</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>250</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>500</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <v>1000</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <v>2000</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="15">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="13" t="e">
         <f>10*LOG(SUM(T$16:T$25))</f>
-        <v>25.447274948966939</v>
-      </c>
-      <c r="F3" s="15">
+        <v>#NUM!</v>
+      </c>
+      <c r="F3" s="13" t="e">
         <f t="shared" ref="F3:I3" si="0">10*LOG(SUM(U$16:U$25))</f>
-        <v>35.447274948966935</v>
-      </c>
-      <c r="G3" s="15">
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>45.447274948966935</v>
-      </c>
-      <c r="H3" s="15">
+        <v>#NUM!</v>
+      </c>
+      <c r="H3" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>55.447274948966943</v>
-      </c>
-      <c r="I3" s="15">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>65.447274948966935</v>
-      </c>
-      <c r="J3" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="J3" s="14" t="e">
         <f>10*LOG(SUM(N3:R3))</f>
-        <v>65.904806424908344</v>
-      </c>
-      <c r="N3" s="14">
+        <v>#NUM!</v>
+      </c>
+      <c r="N3" t="e">
         <f t="shared" ref="N3:R3" si="1">10^(E3/10)</f>
-        <v>350.53185804455188</v>
-      </c>
-      <c r="O3" s="14">
+        <v>#NUM!</v>
+      </c>
+      <c r="O3" t="e">
         <f t="shared" si="1"/>
-        <v>3505.3185804455165</v>
-      </c>
-      <c r="P3" s="14">
+        <v>#NUM!</v>
+      </c>
+      <c r="P3" t="e">
         <f t="shared" si="1"/>
-        <v>35053.185804455141</v>
-      </c>
-      <c r="Q3" s="14">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q3" t="e">
         <f t="shared" si="1"/>
-        <v>350531.85804455244</v>
-      </c>
-      <c r="R3" s="14">
+        <v>#NUM!</v>
+      </c>
+      <c r="R3" t="e">
         <f t="shared" si="1"/>
-        <v>3505318.5804455159</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="19">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="17">
         <v>125</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="17">
         <v>250</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="17">
         <v>500</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <v>1000</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="17">
         <v>2000</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="24" t="s">
+      <c r="J5" s="15"/>
+      <c r="K5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>0.5</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-    </row>
-    <row r="6" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="19">
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="17">
         <f>VLOOKUP($B$3,$B$7:$I$10,4,FALSE())</f>
         <v>50</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="17">
         <f>VLOOKUP($B$3,$B$7:$I$10,5,FALSE())</f>
         <v>60</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="17">
         <f>VLOOKUP($B$3,$B$7:$I$10,6,FALSE())</f>
         <v>70</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <f>VLOOKUP($B$3,$B$7:$I$10,7,FALSE())</f>
         <v>80</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="17">
         <f>VLOOKUP($B$3,$B$7:$I$10,8,FALSE())</f>
         <v>90</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="24" t="s">
+      <c r="J6" s="15"/>
+      <c r="K6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8">
+    <row r="7" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7">
         <v>50</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>60</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>70</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>80</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>90</v>
       </c>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="17"/>
-      <c r="N13" s="22"/>
-    </row>
-    <row r="14" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="15"/>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+    </row>
+    <row r="15" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <v>125</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="17">
         <v>250</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="17">
         <v>500</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <v>1000</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="17">
         <v>2000</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="14">
+      <c r="K15" s="28"/>
+      <c r="N15">
         <v>125</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15">
         <v>250</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15">
         <v>500</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15">
         <v>1000</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15">
         <v>2000</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15">
         <v>125</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15">
         <v>250</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15">
         <v>500</v>
       </c>
-      <c r="W15" s="14">
+      <c r="W15">
         <v>1000</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X15">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>1</v>
@@ -904,612 +1005,616 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>20</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>20</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>20</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>20</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="14">
-        <f>IF(J16="Rw",10*LOG(C16/$L$6)+8+10*LOG($L$5/0.5),-10*LOG($L$6)+18+10*LOG($C16))</f>
-        <v>-4.552725051033061</v>
-      </c>
-      <c r="N16" s="14">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <f>IF(J16="Rw",10*LOG(C16/$L$6)+10*LOG($L$5)+11,-10*LOG($L$6)+10*LOG($C16)+10*LOG($L$5)+21)</f>
+        <v>-4.5630250076728736</v>
+      </c>
+      <c r="N16">
         <f>E$6-E16-$D16+$M16</f>
-        <v>25.447274948966939</v>
-      </c>
-      <c r="O16" s="14">
+        <v>25.436974992327126</v>
+      </c>
+      <c r="O16">
         <f t="shared" ref="O16:O22" si="2">F$6-F16-$D16+$M16</f>
-        <v>35.447274948966935</v>
-      </c>
-      <c r="P16" s="14">
+        <v>35.436974992327123</v>
+      </c>
+      <c r="P16">
         <f t="shared" ref="P16:P22" si="3">G$6-G16-$D16+$M16</f>
-        <v>45.447274948966935</v>
-      </c>
-      <c r="Q16" s="14">
+        <v>45.436974992327123</v>
+      </c>
+      <c r="Q16">
         <f t="shared" ref="Q16:Q22" si="4">H$6-H16-$D16+$M16</f>
-        <v>55.447274948966935</v>
-      </c>
-      <c r="R16" s="14">
+        <v>55.436974992327123</v>
+      </c>
+      <c r="R16">
         <f t="shared" ref="R16:R22" si="5">I$6-I16-$D16+$M16</f>
-        <v>65.447274948966935</v>
-      </c>
-      <c r="T16" s="14">
-        <f t="shared" ref="T16:T25" si="6">IF($K16="Active",10^(N16/10),0)</f>
-        <v>350.53185804455188</v>
-      </c>
-      <c r="U16" s="14">
-        <f t="shared" ref="U16:U25" si="7">IF($K16="Active",10^(O16/10),0)</f>
-        <v>3505.3185804455165</v>
-      </c>
-      <c r="V16" s="14">
-        <f t="shared" ref="V16:V25" si="8">IF($K16="Active",10^(P16/10),0)</f>
-        <v>35053.185804455141</v>
-      </c>
-      <c r="W16" s="14">
-        <f t="shared" ref="W16:W25" si="9">IF($K16="Active",10^(Q16/10),0)</f>
-        <v>350531.8580445518</v>
-      </c>
-      <c r="X16" s="14">
-        <f t="shared" ref="X16:X25" si="10">IF($K16="Active",10^(R16/10),0)</f>
-        <v>3505318.5804455159</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>65.436974992327123</v>
+      </c>
+      <c r="T16">
+        <f>IF($K16="On",10^(N16/10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ref="U16:U25" si="6">IF($K16="On",10^(O16/10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ref="V16:V25" si="7">IF($K16="On",10^(P16/10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ref="W16:W25" si="8">IF($K16="On",10^(Q16/10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" ref="X16:X25" si="9">IF($K16="On",10^(R16/10),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="14" t="e">
-        <f t="shared" ref="M17:M25" si="11">IF(J17="Rw",10*LOG(C17/$L$6)+8+10*LOG($L$5/0.5),-10*LOG($L$6)+18+10*LOG($C17))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N17" s="14" t="e">
-        <f t="shared" ref="N17:N22" si="12">0-E17-$D17+$M17</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="O17" s="14" t="e">
+        <v>11</v>
+      </c>
+      <c r="M17" t="e">
+        <f t="shared" ref="M17:M25" si="10">IF(J17="Rw",10*LOG(C17/$L$6)+8+10*LOG($L$5/0.5),-10*LOG($L$6)+18+10*LOG($C17))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N17" t="e">
+        <f t="shared" ref="N17:N25" si="11">E$6-E17-$D17+$M17</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O17" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="P17" s="14" t="e">
+      <c r="P17" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="Q17" s="14" t="e">
+      <c r="Q17" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="R17" s="14" t="e">
+      <c r="R17" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17">
+        <f t="shared" ref="T17:T25" si="12">IF($K17="On",10^(N17/10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U17" s="14">
+      <c r="V17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V17" s="14">
+      <c r="W17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W17" s="14">
+      <c r="X17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X17" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="14" t="e">
+        <v>11</v>
+      </c>
+      <c r="M18" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N18" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="N18" s="14" t="e">
+      <c r="O18" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P18" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q18" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R18" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O18" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P18" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q18" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="R18" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T18" s="14">
+        <v>0</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U18" s="14">
+      <c r="V18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V18" s="14">
+      <c r="W18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W18" s="14">
+      <c r="X18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X18" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="14" t="e">
+        <v>11</v>
+      </c>
+      <c r="M19" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N19" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="N19" s="14" t="e">
+      <c r="O19" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P19" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q19" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R19" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O19" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P19" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q19" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="R19" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T19" s="14">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U19" s="14">
+      <c r="V19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V19" s="14">
+      <c r="W19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W19" s="14">
+      <c r="X19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X19" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="14" t="e">
+        <v>11</v>
+      </c>
+      <c r="M20" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N20" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="N20" s="14" t="e">
+      <c r="O20" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P20" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q20" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R20" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O20" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P20" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q20" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="R20" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T20" s="14">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U20" s="14">
+      <c r="V20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V20" s="14">
+      <c r="W20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W20" s="14">
+      <c r="X20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X20" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21" s="14" t="e">
+        <v>11</v>
+      </c>
+      <c r="M21" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N21" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="N21" s="14" t="e">
+      <c r="O21" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P21" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q21" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R21" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O21" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P21" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q21" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="R21" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T21" s="14">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U21" s="14">
+      <c r="V21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V21" s="14">
+      <c r="W21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W21" s="14">
+      <c r="X21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X21" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="14" t="e">
+        <v>11</v>
+      </c>
+      <c r="M22" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N22" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="N22" s="14" t="e">
+      <c r="O22" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P22" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q22" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R22" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="12"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O22" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P22" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q22" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="R22" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T22" s="14">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U22" s="14">
+      <c r="V22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V22" s="14">
+      <c r="W22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W22" s="14">
+      <c r="X22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X22" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M23" s="14" t="e">
+        <v>11</v>
+      </c>
+      <c r="M23" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N23" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="N23" s="14" t="e">
-        <f t="shared" ref="N23:N25" si="13">0-E23-$D23+$M23</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="O23" s="14" t="e">
-        <f t="shared" ref="O23:O25" si="14">F$6-F23-$D23+$M23</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="P23" s="14" t="e">
-        <f t="shared" ref="P23:P25" si="15">G$6-G23-$D23+$M23</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q23" s="14" t="e">
-        <f t="shared" ref="Q23:Q25" si="16">H$6-H23-$D23+$M23</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R23" s="14" t="e">
-        <f t="shared" ref="R23:R25" si="17">I$6-I23-$D23+$M23</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T23" s="14">
+      <c r="O23" t="e">
+        <f t="shared" ref="O23:O25" si="13">F$6-F23-$D23+$M23</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="P23" t="e">
+        <f t="shared" ref="P23:P25" si="14">G$6-G23-$D23+$M23</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q23" t="e">
+        <f t="shared" ref="Q23:Q25" si="15">H$6-H23-$D23+$M23</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="R23" t="e">
+        <f t="shared" ref="R23:R25" si="16">I$6-I23-$D23+$M23</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U23" s="14">
+      <c r="V23">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V23" s="14">
+      <c r="W23">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W23" s="14">
+      <c r="X23">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X23" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M24" s="14" t="e">
+        <v>11</v>
+      </c>
+      <c r="M24" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N24" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="N24" s="14" t="e">
+      <c r="O24" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="O24" s="14" t="e">
+      <c r="P24" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
-      <c r="P24" s="14" t="e">
+      <c r="Q24" t="e">
         <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
-      <c r="Q24" s="14" t="e">
+      <c r="R24" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
-      <c r="R24" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T24" s="14">
+      <c r="T24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U24" s="14">
+      <c r="V24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V24" s="14">
+      <c r="W24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W24" s="14">
+      <c r="X24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X24" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" s="14" t="e">
+        <v>11</v>
+      </c>
+      <c r="M25" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N25" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
-      <c r="N25" s="14" t="e">
+      <c r="O25" t="e">
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="O25" s="14" t="e">
+      <c r="P25" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
-      <c r="P25" s="14" t="e">
+      <c r="Q25" t="e">
         <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
-      <c r="Q25" s="14" t="e">
+      <c r="R25" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
-      <c r="R25" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T25" s="14">
+      <c r="T25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U25" s="14">
+      <c r="V25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V25" s="14">
+      <c r="W25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W25" s="14">
+      <c r="X25">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="14">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <autoFilter ref="B1:B29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B25 K16:K25" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Active,Inactive"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J25" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"Rw,Dnew"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{D1521B9D-58DD-44BC-86DB-E6136B6E0451}">
+  <mergeCells count="2">
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:K15"/>
+  </mergeCells>
+  <dataValidations xWindow="390" yWindow="290" count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Dropdown" prompt="Select the facade level from the dropdown menu. The calculated Total level is shown in red on right hand side. _x000a__x000a_" sqref="B3" xr:uid="{D1521B9D-58DD-44BC-86DB-E6136B6E0451}">
       <formula1>$B$7:$B$10</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B16:J25" xr:uid="{27E15916-EDA0-4CB1-8F0F-34A5A3A96507}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K16:K25" xr:uid="{870E3B7F-6D1A-473A-9FDF-D2199647C71F}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Facade Noise" prompt="Select the facade level from the green dropdown_x000a_ below. The calculated total level is shown in red on right hand side. _x000a__x000a_" sqref="B2" xr:uid="{55277FFD-C622-4057-8A37-7443A6DFA94E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Below are the elements you have selected and their noise data. You can enter the deails of a &quot;custom&quot; element in the row coloured green." sqref="B14:J14" xr:uid="{093374BB-3112-4251-A655-88E041D3D848}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Selected" prompt="You can include or exclude an element by selecting &quot;On&quot; or &quot;Off&quot; from the dropdown menu. " sqref="K14:K15" xr:uid="{94FE77F3-E132-461E-A3CA-89A53AB8EAA0}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
